--- a/CutePressPractice/src/test/java/TestData/ProductInput.xlsx
+++ b/CutePressPractice/src/test/java/TestData/ProductInput.xlsx
@@ -32,9 +32,6 @@
     <t>Qunatity</t>
   </si>
   <si>
-    <t>₹269</t>
-  </si>
-  <si>
     <t>Delivery Fee</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>FREE</t>
+  </si>
+  <si>
+    <t>₹299</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,13 +447,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -461,13 +461,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/CutePressPractice/src/test/java/TestData/ProductInput.xlsx
+++ b/CutePressPractice/src/test/java/TestData/ProductInput.xlsx
@@ -41,9 +41,6 @@
     <t>Total Payable</t>
   </si>
   <si>
-    <t>₹309</t>
-  </si>
-  <si>
     <t>₹538</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>₹299</t>
+  </si>
+  <si>
+    <t>₹339</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,13 +447,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -461,13 +461,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/CutePressPractice/src/test/java/TestData/ProductInput.xlsx
+++ b/CutePressPractice/src/test/java/TestData/ProductInput.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmn7455\git\AutomationAssignment\CutePressPractice\src\test\java\TestData\"/>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Price</t>
   </si>
@@ -32,25 +32,22 @@
     <t>Qunatity</t>
   </si>
   <si>
-    <t>Delivery Fee</t>
-  </si>
-  <si>
-    <t>₹40</t>
-  </si>
-  <si>
     <t>Total Payable</t>
   </si>
   <si>
-    <t>₹538</t>
-  </si>
-  <si>
-    <t>FREE</t>
-  </si>
-  <si>
-    <t>₹299</t>
-  </si>
-  <si>
-    <t>₹339</t>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>Ultimate Renewal Premium Set</t>
+  </si>
+  <si>
+    <t>$86.00</t>
+  </si>
+  <si>
+    <t>Ultimate Renewal Revitalising Night Cream</t>
+  </si>
+  <si>
+    <t>$87.00</t>
   </si>
 </sst>
 </file>
@@ -93,7 +90,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,24 +113,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -195,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,7 +244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,14 +432,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -438,36 +452,36 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
